--- a/filename_info.xlsx
+++ b/filename_info.xlsx
@@ -34,304 +34,304 @@
     <t>youtube_code</t>
   </si>
   <si>
-    <t>chu_de-chu_de-chu_de-chu_de-accounting-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-accounting-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-airlines-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-airlines-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-apply_and_interviewing-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-apply_and_interviewing-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-banking-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-banking-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-board_meeting-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-board_meeting-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-business_planning-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-business_planning-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-car_rentals-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-car_rentals-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-computers_and_the_internet-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-computers_and_the_internet-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-conferences-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-conferences-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-contracts-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-contracts-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-cook-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-cook-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-correspondence-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-correspondence-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-dentists_office-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-dentists_office-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-doctors_office-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-doctors_office-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-eating_out-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-eating_out-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-electronics-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-electronics-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-events-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-events-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-financial_statements-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-financial_statements-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-general_travel-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-general_travel-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-health-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-health-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-hiring_and_training-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-hiring_and_training-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-hopitals-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-hopitals-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-hotels-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-hotels-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-inventory-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-inventory-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-investments-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-investments-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-invoices-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-invoices-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-job_ads_and_recruitment-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-job_ads_and_recruitment-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-marketing-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-marketing-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-media-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-media-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-movies-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-movies-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-museums-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-museums-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-music-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-music-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-office_procedures-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-office_procedures-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-office_technology-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-office_technology-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-ordering_lunch-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-ordering_lunch-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-ordering_supplies-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-ordering_supplies-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-pharmacy-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-pharmacy-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-product_development-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-product_development-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-promotion-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-promotion-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-property_and_departments-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-property_and_departments-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-quality_control-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-quality_control-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-renting_and_leasing-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-renting_and_leasing-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-salaries_and_benefits-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-salaries_and_benefits-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-selecting_a_restaurant-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-selecting_a_restaurant-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-shipping-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-shipping-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-shopping-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-shopping-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-taxes-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-taxes-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-theater-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-theater-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-trains-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-trains-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-warranties-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-warranties-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
+    <t>accounting</t>
+  </si>
+  <si>
+    <t>chu_de-accounting-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>airlines</t>
+  </si>
+  <si>
+    <t>chu_de-airlines-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>apply_and_interviewing</t>
+  </si>
+  <si>
+    <t>chu_de-apply_and_interviewing-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>banking</t>
+  </si>
+  <si>
+    <t>chu_de-banking-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>board_meeting</t>
+  </si>
+  <si>
+    <t>chu_de-board_meeting-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>business_planning</t>
+  </si>
+  <si>
+    <t>chu_de-business_planning-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>car_rentals</t>
+  </si>
+  <si>
+    <t>chu_de-car_rentals-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>computers_and_the_internet</t>
+  </si>
+  <si>
+    <t>chu_de-computers_and_the_internet-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>conferences</t>
+  </si>
+  <si>
+    <t>chu_de-conferences-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>contracts</t>
+  </si>
+  <si>
+    <t>chu_de-contracts-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>chu_de-cook-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>correspondence</t>
+  </si>
+  <si>
+    <t>chu_de-correspondence-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>dentists_office</t>
+  </si>
+  <si>
+    <t>chu_de-dentists_office-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>doctors_office</t>
+  </si>
+  <si>
+    <t>chu_de-doctors_office-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>eating_out</t>
+  </si>
+  <si>
+    <t>chu_de-eating_out-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>chu_de-electronics-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>chu_de-events-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>financial_statements</t>
+  </si>
+  <si>
+    <t>chu_de-financial_statements-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>general_travel</t>
+  </si>
+  <si>
+    <t>chu_de-general_travel-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>chu_de-health-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>hiring_and_training</t>
+  </si>
+  <si>
+    <t>chu_de-hiring_and_training-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>hopitals</t>
+  </si>
+  <si>
+    <t>chu_de-hopitals-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>hotels</t>
+  </si>
+  <si>
+    <t>chu_de-hotels-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>chu_de-inventory-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>investments</t>
+  </si>
+  <si>
+    <t>chu_de-investments-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>invoices</t>
+  </si>
+  <si>
+    <t>chu_de-invoices-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>job_ads_and_recruitment</t>
+  </si>
+  <si>
+    <t>chu_de-job_ads_and_recruitment-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>chu_de-marketing-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>chu_de-media-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>chu_de-movies-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>museums</t>
+  </si>
+  <si>
+    <t>chu_de-museums-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>chu_de-music-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>office_procedures</t>
+  </si>
+  <si>
+    <t>chu_de-office_procedures-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>office_technology</t>
+  </si>
+  <si>
+    <t>chu_de-office_technology-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>ordering_lunch</t>
+  </si>
+  <si>
+    <t>chu_de-ordering_lunch-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>ordering_supplies</t>
+  </si>
+  <si>
+    <t>chu_de-ordering_supplies-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>pharmacy</t>
+  </si>
+  <si>
+    <t>chu_de-pharmacy-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>product_development</t>
+  </si>
+  <si>
+    <t>chu_de-product_development-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>promotion</t>
+  </si>
+  <si>
+    <t>chu_de-promotion-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>property_and_departments</t>
+  </si>
+  <si>
+    <t>chu_de-property_and_departments-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>quality_control</t>
+  </si>
+  <si>
+    <t>chu_de-quality_control-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>renting_and_leasing</t>
+  </si>
+  <si>
+    <t>chu_de-renting_and_leasing-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>salaries_and_benefits</t>
+  </si>
+  <si>
+    <t>chu_de-salaries_and_benefits-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>selecting_a_restaurant</t>
+  </si>
+  <si>
+    <t>chu_de-selecting_a_restaurant-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>chu_de-shipping-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>chu_de-shopping-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>chu_de-taxes-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>theater</t>
+  </si>
+  <si>
+    <t>chu_de-theater-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>trains</t>
+  </si>
+  <si>
+    <t>chu_de-trains-300823110226.jpg</t>
+  </si>
+  <si>
+    <t>warranties</t>
+  </si>
+  <si>
+    <t>chu_de-warranties-300823110226.jpg</t>
   </si>
 </sst>
 </file>
@@ -697,10 +697,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>55250</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
+        <v>48516</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -711,10 +708,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>31972</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
+        <v>34165</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -725,10 +719,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>93481</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
+        <v>39248</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -739,10 +730,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>38748</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
+        <v>56018</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -753,10 +741,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>55365</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
+        <v>77833</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -767,10 +752,7 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>87913</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
+        <v>94643</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -781,10 +763,7 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>48496</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
+        <v>61444</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -795,10 +774,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>36373</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
+        <v>36289</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -809,10 +785,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>92067</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
+        <v>72974</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -823,10 +796,7 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>56526</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
+        <v>67122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -837,10 +807,7 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>97434</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
+        <v>55864</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -851,10 +818,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>54983</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
+        <v>96814</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -865,10 +829,7 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>49758</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
+        <v>84211</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -879,10 +840,7 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>74926</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
+        <v>42320</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -893,13 +851,10 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>40419</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>74993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -907,13 +862,10 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>59403</v>
-      </c>
-      <c r="D17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>80823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -921,13 +873,10 @@
         <v>39</v>
       </c>
       <c r="C18">
-        <v>55886</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>92209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -935,13 +884,10 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>30396</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>51441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -949,13 +895,10 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>49018</v>
-      </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>64662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -963,13 +906,10 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>46831</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>40132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -977,13 +917,10 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>69198</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -991,13 +928,10 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>67189</v>
-      </c>
-      <c r="D23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>58792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1005,13 +939,10 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>36649</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>75970</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1019,13 +950,10 @@
         <v>53</v>
       </c>
       <c r="C25">
-        <v>49603</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>79464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1033,13 +961,10 @@
         <v>55</v>
       </c>
       <c r="C26">
-        <v>32018</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>87900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1047,13 +972,10 @@
         <v>57</v>
       </c>
       <c r="C27">
-        <v>72626</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>76468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1061,13 +983,10 @@
         <v>59</v>
       </c>
       <c r="C28">
-        <v>93852</v>
-      </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>56085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1075,13 +994,10 @@
         <v>61</v>
       </c>
       <c r="C29">
-        <v>97356</v>
-      </c>
-      <c r="D29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>37148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1089,13 +1005,10 @@
         <v>63</v>
       </c>
       <c r="C30">
-        <v>51627</v>
-      </c>
-      <c r="D30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>55943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1103,13 +1016,10 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>51487</v>
-      </c>
-      <c r="D31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>57559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1117,13 +1027,10 @@
         <v>67</v>
       </c>
       <c r="C32">
-        <v>41938</v>
-      </c>
-      <c r="D32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>39757</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1131,13 +1038,10 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>78402</v>
-      </c>
-      <c r="D33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>84064</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1145,13 +1049,10 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>30384</v>
-      </c>
-      <c r="D34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>48243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1159,13 +1060,10 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>47747</v>
-      </c>
-      <c r="D35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>77438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1173,13 +1071,10 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>66728</v>
-      </c>
-      <c r="D36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>51761</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1187,13 +1082,10 @@
         <v>77</v>
       </c>
       <c r="C37">
-        <v>30578</v>
-      </c>
-      <c r="D37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>40448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1201,13 +1093,10 @@
         <v>79</v>
       </c>
       <c r="C38">
-        <v>74256</v>
-      </c>
-      <c r="D38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>90866</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1215,13 +1104,10 @@
         <v>81</v>
       </c>
       <c r="C39">
-        <v>34841</v>
-      </c>
-      <c r="D39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>76113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -1229,13 +1115,10 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>49730</v>
-      </c>
-      <c r="D40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>35476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1243,13 +1126,10 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>88942</v>
-      </c>
-      <c r="D41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>61495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -1257,13 +1137,10 @@
         <v>87</v>
       </c>
       <c r="C42">
-        <v>92139</v>
-      </c>
-      <c r="D42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>32467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -1271,13 +1148,10 @@
         <v>89</v>
       </c>
       <c r="C43">
-        <v>66307</v>
-      </c>
-      <c r="D43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>39895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1285,13 +1159,10 @@
         <v>91</v>
       </c>
       <c r="C44">
-        <v>45278</v>
-      </c>
-      <c r="D44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>81597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -1299,13 +1170,10 @@
         <v>93</v>
       </c>
       <c r="C45">
-        <v>94860</v>
-      </c>
-      <c r="D45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>56445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -1313,13 +1181,10 @@
         <v>95</v>
       </c>
       <c r="C46">
-        <v>61232</v>
-      </c>
-      <c r="D46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>85712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -1327,13 +1192,10 @@
         <v>97</v>
       </c>
       <c r="C47">
-        <v>64541</v>
-      </c>
-      <c r="D47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>89492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -1341,13 +1203,10 @@
         <v>99</v>
       </c>
       <c r="C48">
-        <v>75417</v>
-      </c>
-      <c r="D48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>80009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -1355,13 +1214,10 @@
         <v>101</v>
       </c>
       <c r="C49">
-        <v>80234</v>
-      </c>
-      <c r="D49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>66763</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -1369,13 +1225,10 @@
         <v>103</v>
       </c>
       <c r="C50">
-        <v>60199</v>
-      </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>48775</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -1383,10 +1236,7 @@
         <v>105</v>
       </c>
       <c r="C51">
-        <v>37230</v>
-      </c>
-      <c r="D51">
-        <v>9</v>
+        <v>53147</v>
       </c>
     </row>
   </sheetData>

--- a/filename_info.xlsx
+++ b/filename_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>chu_de_name</t>
   </si>
@@ -34,304 +34,604 @@
     <t>youtube_code</t>
   </si>
   <si>
-    <t>chu_de-chu_de-chu_de-chu_de-accounting-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-accounting-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-airlines-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-airlines-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-apply_and_interviewing-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-apply_and_interviewing-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-banking-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-banking-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-board_meeting-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-board_meeting-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-business_planning-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-business_planning-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-car_rentals-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-car_rentals-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-computers_and_the_internet-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-computers_and_the_internet-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-conferences-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-conferences-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-contracts-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-contracts-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-cook-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-cook-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-correspondence-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-correspondence-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-dentists_office-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-dentists_office-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-doctors_office-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-doctors_office-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-eating_out-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-eating_out-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-electronics-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-electronics-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-events-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-events-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-financial_statements-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-financial_statements-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-general_travel-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-general_travel-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-health-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-health-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-hiring_and_training-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-hiring_and_training-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-hopitals-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-hopitals-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-hotels-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-hotels-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-inventory-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-inventory-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-investments-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-investments-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-invoices-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-invoices-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-job_ads_and_recruitment-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-job_ads_and_recruitment-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-marketing-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-marketing-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-media-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-media-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-movies-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-movies-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-museums-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-museums-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-music-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-music-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-office_procedures-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-office_procedures-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-office_technology-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-office_technology-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-ordering_lunch-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-ordering_lunch-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-ordering_supplies-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-ordering_supplies-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-pharmacy-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-pharmacy-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-product_development-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-product_development-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-promotion-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-promotion-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-property_and_departments-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-property_and_departments-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-quality_control-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-quality_control-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-renting_and_leasing-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-renting_and_leasing-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-salaries_and_benefits-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-salaries_and_benefits-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-selecting_a_restaurant-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-selecting_a_restaurant-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-shipping-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-shipping-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-shopping-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-shopping-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-taxes-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-taxes-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-theater-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-theater-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-trains-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-trains-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-warranties-250823154610-250823155217-250823155926-250823160329</t>
-  </si>
-  <si>
-    <t>chu_de-chu_de-chu_de-chu_de-chu_de-warranties-250823154610-250823155217-250823155926-250823160329-250823161616.jpg</t>
+    <t>chu_de-accounting-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-accounting-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-airlines-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-airlines-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-apply_and_interviewing-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-apply_and_interviewing-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-banking-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-banking-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-board_meeting-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-board_meeting-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-business_planning-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-business_planning-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-car_rentals-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-car_rentals-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-computers_and_the_internet-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-computers_and_the_internet-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-conferences-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-conferences-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-contracts-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-contracts-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-cook-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-cook-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-correspondence-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-correspondence-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-dentists_office-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-dentists_office-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-doctors_office-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-doctors_office-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-eating_out-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-eating_out-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-electronics-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-electronics-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-events-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-events-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-financial_statements-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-financial_statements-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-general_travel-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-general_travel-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-health-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-health-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-hiring_and_training-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-hiring_and_training-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-hopitals-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-hopitals-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-hotels-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-hotels-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-inventory-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-inventory-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-investments-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-investments-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-invoices-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-invoices-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-job_ads_and_recruitment-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-job_ads_and_recruitment-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-marketing-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-marketing-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-media-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-media-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-movies-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-movies-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-museums-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-museums-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-music-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-music-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-office_procedures-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-office_procedures-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-office_technology-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-office_technology-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-ordering_lunch-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-ordering_lunch-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-ordering_supplies-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-ordering_supplies-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-pharmacy-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-pharmacy-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-product_development-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-product_development-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-promotion-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-promotion-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-property_and_departments-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-property_and_departments-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-quality_control-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-quality_control-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-renting_and_leasing-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-renting_and_leasing-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-salaries_and_benefits-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-salaries_and_benefits-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-selecting_a_restaurant-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-selecting_a_restaurant-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-shipping-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-shipping-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-shopping-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-shopping-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-taxes-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-taxes-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-theater-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-theater-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-trains-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-trains-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>chu_de-warranties-300823110226</t>
+  </si>
+  <si>
+    <t>chu_de-chu_de-warranties-300823110226-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-accounting-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-accounting-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-airlines-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-airlines-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-apply_and_interviewing-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-apply_and_interviewing-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-banking-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-banking-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-board_meeting-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-board_meeting-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-business_planning-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-business_planning-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-car_rentals-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-car_rentals-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-computers_and_the_internet-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-computers_and_the_internet-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-conferences-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-conferences-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-contracts-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-contracts-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-cook-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-cook-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-correspondence-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-correspondence-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-dentists_office-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-dentists_office-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-doctors_office-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-doctors_office-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-eating_out-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-eating_out-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-electronics-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-electronics-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-events-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-events-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-financial_statements-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-financial_statements-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-general_travel-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-general_travel-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-health-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-health-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-hiring_and_training-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-hiring_and_training-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-hopitals-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-hopitals-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-hotels-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-hotels-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-inventory-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-inventory-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-investments-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-investments-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-invoices-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-invoices-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-job_ads_and_recruitment-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-job_ads_and_recruitment-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-marketing-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-marketing-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-media-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-media-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-movies-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-movies-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-museums-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-museums-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-music-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-music-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-office_procedures-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-office_procedures-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-office_technology-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-office_technology-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-ordering_lunch-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-ordering_lunch-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-ordering_supplies-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-ordering_supplies-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-pharmacy-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-pharmacy-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-product_development-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-product_development-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-promotion-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-promotion-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-property_and_departments-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-property_and_departments-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-quality_control-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-quality_control-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-renting_and_leasing-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-renting_and_leasing-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-salaries_and_benefits-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-salaries_and_benefits-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-selecting_a_restaurant-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-selecting_a_restaurant-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-shipping-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-shipping-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-shopping-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-shopping-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-taxes-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-taxes-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-theater-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-theater-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-trains-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-trains-270823232834-270823232857-270823233022-310823000604.jpg</t>
+  </si>
+  <si>
+    <t>tu_moi-tu_moi-tu_moi-warranties-270823232834-270823232857-270823233022</t>
+  </si>
+  <si>
+    <t>chu_de-tu_moi-tu_moi-tu_moi-warranties-270823232834-270823232857-270823233022-310823000604.jpg</t>
   </si>
 </sst>
 </file>
@@ -663,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>55250</v>
+        <v>96772</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -711,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>31972</v>
+        <v>49442</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -725,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>93481</v>
+        <v>76959</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -739,7 +1039,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>38748</v>
+        <v>81513</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -753,7 +1053,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>55365</v>
+        <v>93200</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -767,7 +1067,7 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>87913</v>
+        <v>69076</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -781,7 +1081,7 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>48496</v>
+        <v>39307</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -795,7 +1095,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>36373</v>
+        <v>44706</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -809,7 +1109,7 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>92067</v>
+        <v>78567</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -823,7 +1123,7 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>56526</v>
+        <v>42887</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -837,7 +1137,7 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>97434</v>
+        <v>36158</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -851,7 +1151,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>54983</v>
+        <v>61202</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -865,7 +1165,7 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>49758</v>
+        <v>45487</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -879,7 +1179,7 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>74926</v>
+        <v>93122</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -893,7 +1193,7 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>40419</v>
+        <v>79258</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -907,7 +1207,7 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <v>59403</v>
+        <v>69915</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -921,7 +1221,7 @@
         <v>39</v>
       </c>
       <c r="C18">
-        <v>55886</v>
+        <v>81205</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -935,7 +1235,7 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>30396</v>
+        <v>82539</v>
       </c>
       <c r="D19">
         <v>9</v>
@@ -949,7 +1249,7 @@
         <v>43</v>
       </c>
       <c r="C20">
-        <v>49018</v>
+        <v>49866</v>
       </c>
       <c r="D20">
         <v>9</v>
@@ -963,7 +1263,7 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>46831</v>
+        <v>31657</v>
       </c>
       <c r="D21">
         <v>9</v>
@@ -977,7 +1277,7 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>69198</v>
+        <v>90797</v>
       </c>
       <c r="D22">
         <v>9</v>
@@ -991,7 +1291,7 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>67189</v>
+        <v>70233</v>
       </c>
       <c r="D23">
         <v>9</v>
@@ -1005,7 +1305,7 @@
         <v>51</v>
       </c>
       <c r="C24">
-        <v>36649</v>
+        <v>51251</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -1019,7 +1319,7 @@
         <v>53</v>
       </c>
       <c r="C25">
-        <v>49603</v>
+        <v>70206</v>
       </c>
       <c r="D25">
         <v>9</v>
@@ -1033,7 +1333,7 @@
         <v>55</v>
       </c>
       <c r="C26">
-        <v>32018</v>
+        <v>68382</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -1047,7 +1347,7 @@
         <v>57</v>
       </c>
       <c r="C27">
-        <v>72626</v>
+        <v>95493</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -1061,7 +1361,7 @@
         <v>59</v>
       </c>
       <c r="C28">
-        <v>93852</v>
+        <v>34151</v>
       </c>
       <c r="D28">
         <v>9</v>
@@ -1075,7 +1375,7 @@
         <v>61</v>
       </c>
       <c r="C29">
-        <v>97356</v>
+        <v>40120</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -1089,7 +1389,7 @@
         <v>63</v>
       </c>
       <c r="C30">
-        <v>51627</v>
+        <v>36542</v>
       </c>
       <c r="D30">
         <v>9</v>
@@ -1103,7 +1403,7 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <v>51487</v>
+        <v>78042</v>
       </c>
       <c r="D31">
         <v>9</v>
@@ -1117,7 +1417,7 @@
         <v>67</v>
       </c>
       <c r="C32">
-        <v>41938</v>
+        <v>40955</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -1131,7 +1431,7 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>78402</v>
+        <v>35897</v>
       </c>
       <c r="D33">
         <v>9</v>
@@ -1145,7 +1445,7 @@
         <v>71</v>
       </c>
       <c r="C34">
-        <v>30384</v>
+        <v>44514</v>
       </c>
       <c r="D34">
         <v>9</v>
@@ -1159,7 +1459,7 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>47747</v>
+        <v>75029</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -1173,7 +1473,7 @@
         <v>75</v>
       </c>
       <c r="C36">
-        <v>66728</v>
+        <v>71617</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -1187,7 +1487,7 @@
         <v>77</v>
       </c>
       <c r="C37">
-        <v>30578</v>
+        <v>32555</v>
       </c>
       <c r="D37">
         <v>9</v>
@@ -1201,7 +1501,7 @@
         <v>79</v>
       </c>
       <c r="C38">
-        <v>74256</v>
+        <v>90463</v>
       </c>
       <c r="D38">
         <v>9</v>
@@ -1215,7 +1515,7 @@
         <v>81</v>
       </c>
       <c r="C39">
-        <v>34841</v>
+        <v>46969</v>
       </c>
       <c r="D39">
         <v>9</v>
@@ -1229,7 +1529,7 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>49730</v>
+        <v>41428</v>
       </c>
       <c r="D40">
         <v>9</v>
@@ -1243,7 +1543,7 @@
         <v>85</v>
       </c>
       <c r="C41">
-        <v>88942</v>
+        <v>48519</v>
       </c>
       <c r="D41">
         <v>9</v>
@@ -1257,7 +1557,7 @@
         <v>87</v>
       </c>
       <c r="C42">
-        <v>92139</v>
+        <v>76882</v>
       </c>
       <c r="D42">
         <v>9</v>
@@ -1271,7 +1571,7 @@
         <v>89</v>
       </c>
       <c r="C43">
-        <v>66307</v>
+        <v>98377</v>
       </c>
       <c r="D43">
         <v>9</v>
@@ -1285,7 +1585,7 @@
         <v>91</v>
       </c>
       <c r="C44">
-        <v>45278</v>
+        <v>67259</v>
       </c>
       <c r="D44">
         <v>9</v>
@@ -1299,7 +1599,7 @@
         <v>93</v>
       </c>
       <c r="C45">
-        <v>94860</v>
+        <v>89058</v>
       </c>
       <c r="D45">
         <v>9</v>
@@ -1313,7 +1613,7 @@
         <v>95</v>
       </c>
       <c r="C46">
-        <v>61232</v>
+        <v>39362</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -1327,7 +1627,7 @@
         <v>97</v>
       </c>
       <c r="C47">
-        <v>64541</v>
+        <v>62011</v>
       </c>
       <c r="D47">
         <v>9</v>
@@ -1341,7 +1641,7 @@
         <v>99</v>
       </c>
       <c r="C48">
-        <v>75417</v>
+        <v>51468</v>
       </c>
       <c r="D48">
         <v>9</v>
@@ -1355,7 +1655,7 @@
         <v>101</v>
       </c>
       <c r="C49">
-        <v>80234</v>
+        <v>96767</v>
       </c>
       <c r="D49">
         <v>9</v>
@@ -1369,7 +1669,7 @@
         <v>103</v>
       </c>
       <c r="C50">
-        <v>60199</v>
+        <v>55350</v>
       </c>
       <c r="D50">
         <v>9</v>
@@ -1383,9 +1683,709 @@
         <v>105</v>
       </c>
       <c r="C51">
-        <v>37230</v>
+        <v>64205</v>
       </c>
       <c r="D51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52">
+        <v>54774</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53">
+        <v>91813</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>81625</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55">
+        <v>95764</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56">
+        <v>58312</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57">
+        <v>64374</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58">
+        <v>77898</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59">
+        <v>74404</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60">
+        <v>31988</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61">
+        <v>94697</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62">
+        <v>65583</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63">
+        <v>77366</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64">
+        <v>89031</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65">
+        <v>39243</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66">
+        <v>51249</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67">
+        <v>78563</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68">
+        <v>46595</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69">
+        <v>83344</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70">
+        <v>70892</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71">
+        <v>51778</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72">
+        <v>87456</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73">
+        <v>78902</v>
+      </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74">
+        <v>31579</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75">
+        <v>73698</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76">
+        <v>32956</v>
+      </c>
+      <c r="D76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77">
+        <v>43914</v>
+      </c>
+      <c r="D77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78">
+        <v>90650</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79">
+        <v>37002</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80">
+        <v>79437</v>
+      </c>
+      <c r="D80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81">
+        <v>36002</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82">
+        <v>64977</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83">
+        <v>71076</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84">
+        <v>89246</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85">
+        <v>60114</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86">
+        <v>40167</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87">
+        <v>54707</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88">
+        <v>91602</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89">
+        <v>46597</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90">
+        <v>32067</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91">
+        <v>37290</v>
+      </c>
+      <c r="D91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92">
+        <v>57421</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93">
+        <v>52843</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94">
+        <v>91179</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95">
+        <v>84716</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96">
+        <v>72423</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97">
+        <v>63472</v>
+      </c>
+      <c r="D97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98">
+        <v>42788</v>
+      </c>
+      <c r="D98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99">
+        <v>96882</v>
+      </c>
+      <c r="D99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100">
+        <v>60724</v>
+      </c>
+      <c r="D100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101">
+        <v>70452</v>
+      </c>
+      <c r="D101">
         <v>9</v>
       </c>
     </row>
